--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunlin/Documents/GitHub/Leetcode_Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48907D10-A829-1D47-AC73-82C7C3F4B4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC7E8B1-3233-AC4D-BB63-9A87291FAF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{A8B0DDC6-34EB-EB4C-A82A-6376C771D9B2}"/>
   </bookViews>
@@ -395,34 +395,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EE0BEC-ECDA-A744-B45C-A45AB9C42584}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>44725</v>
       </c>
+      <c r="C1" s="2">
+        <v>44726</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0.32916666666666666</v>
       </c>
+      <c r="C2" s="3">
+        <v>0.35069444444444442</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0.37152777777777773</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.40138888888888885</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunlin/Documents/GitHub/Leetcode_Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC7E8B1-3233-AC4D-BB63-9A87291FAF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DA8A5D-3FF5-BA47-AAB3-1C750A663C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{A8B0DDC6-34EB-EB4C-A82A-6376C771D9B2}"/>
   </bookViews>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EE0BEC-ECDA-A744-B45C-A45AB9C42584}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>44725</v>
@@ -411,8 +411,11 @@
       <c r="C1" s="2">
         <v>44726</v>
       </c>
+      <c r="D1" s="2">
+        <v>44727</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -422,8 +425,11 @@
       <c r="C2" s="3">
         <v>0.35069444444444442</v>
       </c>
+      <c r="D2" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -432,6 +438,9 @@
       </c>
       <c r="C3" s="3">
         <v>0.40138888888888885</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.3263888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunlin/Documents/GitHub/Leetcode_Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DA8A5D-3FF5-BA47-AAB3-1C750A663C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629EE4BC-7330-E544-95A0-AF2B06FB4E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{A8B0DDC6-34EB-EB4C-A82A-6376C771D9B2}"/>
   </bookViews>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EE0BEC-ECDA-A744-B45C-A45AB9C42584}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>44725</v>
@@ -414,8 +414,11 @@
       <c r="D1" s="2">
         <v>44727</v>
       </c>
+      <c r="E1" s="2">
+        <v>44729</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -428,8 +431,11 @@
       <c r="D2" s="3">
         <v>0.3125</v>
       </c>
+      <c r="E2" s="3">
+        <v>0.34027777777777773</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -441,6 +447,9 @@
       </c>
       <c r="D3" s="3">
         <v>0.3263888888888889</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.35069444444444442</v>
       </c>
     </row>
   </sheetData>
